--- a/Master.xlsx
+++ b/Master.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>a</t>
   </si>
@@ -22,6 +22,24 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 sama</t>
+  </si>
+  <si>
+    <t>https://asset.kompas.com/crops/CLKOgydea1KEwTYuz1rOrExk1hM=/0x36:1117x781/750x500/data/photo/2021/10/05/615c5f08bd530.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 error</t>
+  </si>
+  <si>
+    <t>https://asset.kompas.com/crops/p8ANAM_lYNsgjXKbVZqRcBKw2Kk=/0x0:701x467/750x500/data/photo/2021/10/05/615c5f088a3da.jpg</t>
+  </si>
+  <si>
+    <t>https://asset.kompas.com/crops/p8ANAM_lYNsgjXKbVZqRcBKw2Kk=/0x0:701x467/750x500/data/photo/2021/10/05/615c5f0sss88a3da.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 beda</t>
   </si>
 </sst>
 </file>
@@ -38,7 +56,7 @@
     <font>
       <name val="Calibri"/>
       <color theme="10"/>
-      <sz val="10.500000"/>
+      <sz val="11.000000"/>
       <u/>
     </font>
   </fonts>
@@ -62,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,18 +615,48 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
+    <row r="5" ht="14.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
